--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.wf.view-oa.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.wf.view-oa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B33CF5-B40F-1D4C-B887-9EEC39DDADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910C1211-FD7B-5B47-BFBB-0D27A592C708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22420" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -170,70 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:ui/ui.list.qr/run.open.by/ui.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/run.accepted.by/ui.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/run.default/ui.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.open.by/ui.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.close.by/ui.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.cancel.by/ui.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.default/ui.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/run.open.by/criteria.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/run.accepted.by/criteria.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/run.default/criteria.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.close.by/criteria.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.open.by/criteria.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.cancel.by/criteria.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.default/criteria.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/run.default/qr.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:ui/ui.list.qr/done.default/qr.config.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>open.by</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,6 +456,54 @@
   <si>
     <t>UI_VIEW</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/run.open.by/ui.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/run.open.by/criteria.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/run.accepted.by/ui.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/run.accepted.by/criteria.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/run.default/ui.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/run.default/criteria.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/run.default/qr.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.close.by/ui.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.close.by/criteria.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.open.by/ui.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.open.by/criteria.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.cancel.by/ui.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.cancel.by/criteria.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.default/ui.config.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.default/criteria.json</t>
+  </si>
+  <si>
+    <t>JSON:ui/ui.view/done.default/qr.config.json</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1050,7 @@
   <dimension ref="A2:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="21"/>
@@ -1093,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>3</v>
@@ -1118,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -1162,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -1200,16 +1184,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
@@ -1218,16 +1202,16 @@
         <v>14</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -1236,16 +1220,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9">
         <v>1010</v>
@@ -1254,16 +1238,16 @@
         <v>15</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
@@ -1272,13 +1256,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>8</v>
@@ -1293,35 +1277,35 @@
         <v>8</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E8" s="14">
         <v>1005</v>
@@ -1330,16 +1314,16 @@
         <v>16</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -1348,16 +1332,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E9" s="15">
         <v>1010</v>
@@ -1366,16 +1350,16 @@
         <v>14</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -1384,16 +1368,16 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E10" s="15">
         <v>1015</v>
@@ -1402,16 +1386,16 @@
         <v>17</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1420,13 +1404,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>8</v>
@@ -1441,35 +1425,35 @@
         <v>8</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E12" s="9">
         <v>1005</v>
@@ -1478,16 +1462,16 @@
         <v>14</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -1496,16 +1480,16 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
@@ -1514,16 +1498,16 @@
         <v>15</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1532,13 +1516,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>8</v>
@@ -1553,35 +1537,35 @@
         <v>8</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E15" s="14">
         <v>1005</v>
@@ -1590,16 +1574,16 @@
         <v>16</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -1608,16 +1592,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E16" s="15">
         <v>1010</v>
@@ -1626,16 +1610,16 @@
         <v>14</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -1644,16 +1628,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E17" s="15">
         <v>1015</v>
@@ -1662,16 +1646,16 @@
         <v>17</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -1680,13 +1664,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>8</v>
@@ -1701,35 +1685,35 @@
         <v>8</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E19" s="9">
         <v>1005</v>
@@ -1738,16 +1722,16 @@
         <v>14</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -1756,16 +1740,16 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E20" s="9">
         <v>1010</v>
@@ -1774,16 +1758,16 @@
         <v>15</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -1792,13 +1776,13 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="8" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>8</v>
@@ -1813,35 +1797,35 @@
         <v>8</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E22" s="14">
         <v>1005</v>
@@ -1850,16 +1834,16 @@
         <v>16</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -1868,16 +1852,16 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E23" s="15">
         <v>1010</v>
@@ -1886,16 +1870,16 @@
         <v>14</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -1904,16 +1888,16 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E24" s="15">
         <v>1015</v>
@@ -1922,16 +1906,16 @@
         <v>17</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -1940,13 +1924,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>8</v>
@@ -1961,35 +1945,35 @@
         <v>8</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E26" s="9">
         <v>1005</v>
@@ -1998,16 +1982,16 @@
         <v>14</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -2016,16 +2000,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E27" s="9">
         <v>1010</v>
@@ -2034,16 +2018,16 @@
         <v>15</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -2052,13 +2036,13 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>8</v>
@@ -2073,35 +2057,35 @@
         <v>8</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E29" s="14">
         <v>1005</v>
@@ -2110,16 +2094,16 @@
         <v>16</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -2128,16 +2112,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E30" s="15">
         <v>1010</v>
@@ -2146,16 +2130,16 @@
         <v>14</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -2164,16 +2148,16 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E31" s="15">
         <v>1015</v>
@@ -2182,16 +2166,16 @@
         <v>17</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -2200,13 +2184,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>8</v>
@@ -2221,35 +2205,35 @@
         <v>8</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E33" s="9">
         <v>1005</v>
@@ -2258,16 +2242,16 @@
         <v>14</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -2276,16 +2260,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E34" s="9">
         <v>1010</v>
@@ -2294,16 +2278,16 @@
         <v>15</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -2312,13 +2296,13 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>8</v>
@@ -2333,35 +2317,35 @@
         <v>8</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E36" s="14">
         <v>1005</v>
@@ -2370,16 +2354,16 @@
         <v>16</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -2388,16 +2372,16 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E37" s="15">
         <v>1010</v>
@@ -2406,16 +2390,16 @@
         <v>14</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
@@ -2424,16 +2408,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E38" s="15">
         <v>1015</v>
@@ -2442,16 +2426,16 @@
         <v>17</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
@@ -2460,13 +2444,13 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>8</v>
@@ -2481,35 +2465,35 @@
         <v>8</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E40" s="9">
         <v>1005</v>
@@ -2518,16 +2502,16 @@
         <v>14</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
@@ -2536,16 +2520,16 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E41" s="9">
         <v>1010</v>
@@ -2554,16 +2538,16 @@
         <v>15</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -2572,13 +2556,13 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>8</v>
@@ -2593,35 +2577,35 @@
         <v>8</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E43" s="14">
         <v>1005</v>
@@ -2630,16 +2614,16 @@
         <v>16</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
@@ -2648,16 +2632,16 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E44" s="15">
         <v>1010</v>
@@ -2666,16 +2650,16 @@
         <v>14</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -2684,16 +2668,16 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E45" s="15">
         <v>1015</v>
@@ -2702,16 +2686,16 @@
         <v>17</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
@@ -2720,13 +2704,13 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>8</v>
@@ -2741,35 +2725,35 @@
         <v>8</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E47" s="9">
         <v>1005</v>
@@ -2778,16 +2762,16 @@
         <v>14</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
@@ -2796,16 +2780,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E48" s="9">
         <v>1010</v>
@@ -2814,16 +2798,16 @@
         <v>15</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
@@ -2832,13 +2816,13 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>8</v>
@@ -2853,35 +2837,35 @@
         <v>8</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E50" s="14">
         <v>1005</v>
@@ -2890,16 +2874,16 @@
         <v>16</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
@@ -2908,16 +2892,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E51" s="15">
         <v>1010</v>
@@ -2926,16 +2910,16 @@
         <v>14</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
@@ -2944,16 +2928,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E52" s="15">
         <v>1015</v>
@@ -2962,16 +2946,16 @@
         <v>17</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
@@ -2980,13 +2964,13 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>8</v>
@@ -3001,35 +2985,35 @@
         <v>8</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E54" s="9">
         <v>1005</v>
@@ -3038,16 +3022,16 @@
         <v>14</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
@@ -3056,16 +3040,16 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E55" s="9">
         <v>1010</v>
@@ -3074,16 +3058,16 @@
         <v>15</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
@@ -3092,13 +3076,13 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>8</v>
@@ -3113,35 +3097,35 @@
         <v>8</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="M56" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E57" s="14">
         <v>1005</v>
@@ -3150,16 +3134,16 @@
         <v>16</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -3168,16 +3152,16 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E58" s="15">
         <v>1010</v>
@@ -3186,16 +3170,16 @@
         <v>14</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
@@ -3204,16 +3188,16 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E59" s="15">
         <v>1015</v>
@@ -3222,16 +3206,16 @@
         <v>17</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
@@ -3240,13 +3224,13 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>8</v>
@@ -3261,21 +3245,21 @@
         <v>8</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="M60" s="19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
